--- a/docs/StructureDefinition-PatientDataReceiptHeader.xlsx
+++ b/docs/StructureDefinition-PatientDataReceiptHeader.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T10:16:51-05:00</t>
+    <t>2022-04-07T10:41:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PatientDataReceiptHeader.xlsx
+++ b/docs/StructureDefinition-PatientDataReceiptHeader.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T10:41:20-05:00</t>
+    <t>2022-04-07T11:11:08-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PatientDataReceiptHeader.xlsx
+++ b/docs/StructureDefinition-PatientDataReceiptHeader.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T11:11:08-05:00</t>
+    <t>2022-04-16T12:52:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,7 @@
 </t>
   </si>
   <si>
-    <t>Account Extension</t>
+    <t>Extension-Account</t>
   </si>
   <si>
     <t>Support specification of the target account for a patient data receipt message</t>

--- a/docs/StructureDefinition-PatientDataReceiptHeader.xlsx
+++ b/docs/StructureDefinition-PatientDataReceiptHeader.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-16T12:52:05-05:00</t>
+    <t>2022-04-16T13:01:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PatientDataReceiptHeader.xlsx
+++ b/docs/StructureDefinition-PatientDataReceiptHeader.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-16T13:01:50-05:00</t>
+    <t>2022-04-18T01:21:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
